--- a/Motorcycles.xlsx
+++ b/Motorcycles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falap\Documentos\Iron_Hack\Projects\Project_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93F4269-EB9F-4103-AADE-3EF5B8C49BDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FB5EE-67B4-41A8-9CC2-451127E03D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{2C3D2518-C68E-4FE0-B0FB-2985B67F3A5D}"/>
   </bookViews>

--- a/Motorcycles.xlsx
+++ b/Motorcycles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falap\Documentos\Iron_Hack\Projects\Project_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FB5EE-67B4-41A8-9CC2-451127E03D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD45F3D-0DFC-4AB8-B8BF-C672C00E1E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{2C3D2518-C68E-4FE0-B0FB-2985B67F3A5D}"/>
+    <workbookView xWindow="1995" yWindow="1110" windowWidth="25140" windowHeight="15435" xr2:uid="{2C3D2518-C68E-4FE0-B0FB-2985B67F3A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,152 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Cooling system</t>
+  </si>
+  <si>
+    <t>Engine type</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Kawasaki</t>
+  </si>
+  <si>
+    <t>Ducati</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>Harley-Davidson</t>
+  </si>
+  <si>
+    <t>Aprilia</t>
+  </si>
+  <si>
+    <t>MV Agusta</t>
+  </si>
+  <si>
+    <t>Benelli</t>
+  </si>
+  <si>
+    <t>Keeway</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>Peugeot</t>
+  </si>
+  <si>
+    <t>Moto Guzzi</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Yamaha YZF-R6</t>
+  </si>
+  <si>
+    <t>153.1</t>
+  </si>
+  <si>
+    <t>Greenhouse gases CO2 g/km</t>
+  </si>
+  <si>
+    <t>Fuel consumption litres/100 km</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>Torque Nm</t>
+  </si>
+  <si>
+    <t>123.50</t>
+  </si>
+  <si>
+    <t>Horsepower</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>17.03</t>
+  </si>
+  <si>
+    <t>190.1</t>
+  </si>
+  <si>
+    <t>Fuel capacity liters</t>
+  </si>
+  <si>
+    <t>Weight Kg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +529,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F1B6F5-8A7F-4493-8CFA-C4DC24A23DF0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1">
+        <v>14500</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Motorcycles.xlsx
+++ b/Motorcycles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falap\Documentos\Iron_Hack\Projects\Project_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3566A40-95E5-452D-ACB0-B51C34D576AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C39775B-FE1D-4725-8C53-3A1F96427180}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2C3D2518-C68E-4FE0-B0FB-2985B67F3A5D}"/>
+    <workbookView xWindow="-27940" yWindow="-3280" windowWidth="25140" windowHeight="15440" xr2:uid="{2C3D2518-C68E-4FE0-B0FB-2985B67F3A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
